--- a/model/outputData/50_kW_1200_AggDmd/50kW_aging.xlsx
+++ b/model/outputData/50_kW_1200_AggDmd/50kW_aging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1200-4ev" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Base</t>
   </si>
@@ -112,13 +112,17 @@
       <t>eqa</t>
     </r>
   </si>
+  <si>
+    <t>EV Only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -232,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -245,9 +249,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -260,6 +261,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,6 +629,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.372385326430481E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4706031837445465E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7357245280324773E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4465191575806004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5086962450479021E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3252946082513863E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9726345707429877E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1706221310319446E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.078683842021105E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3957536403401647E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0693992287968515E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4116752095105306E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4066814804792029E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6862091891821572E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15154987807760803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27883130342181922</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64096737705394358</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4242259441310841</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8698059755895722</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9059064436897888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1534978380836893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.387898198212728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9818853212843521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -746,6 +826,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4191405962443783E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.380198560408621E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5544528816110685E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4567921670392355E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6010608378889311E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.113862137817087E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9399783962686353E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7951357596455911E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9512066984927512E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.90525967610586E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1075900147123819E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6147901646581601E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7905569501123643E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4833331497475859E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2196440184632253E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1244221775677117E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0259853659286605E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1329923584359991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41872368728339227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0254244364981244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2499763674126299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6973888595665314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8569563951670847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1261,9 +1413,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13729404828777"/>
+          <c:x val="0.19304596266042232"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.80640368540789853"/>
+          <c:w val="0.75065183770848531"/>
           <c:h val="0.62990522018081074"/>
         </c:manualLayout>
       </c:layout>
@@ -1583,6 +1735,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1781571981165256E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1964573727068713E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5579239276537383E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9726993118353784E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5566066162194011E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9828317279791643E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4003470404673083E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3177429365564105E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6802625549243488E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10194681547606724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1670354004486071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28599944037896391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67837022810874781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2769547763193443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.120346538408997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.388542243835147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.515536220788917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>228.21029141506079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1067.8229903733625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3753.5281170432322</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10052.835139213752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18446.60184096139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20709.775880768822</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1708,6 +1932,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1581591315422245E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3731837959437108E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0110195412666285E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3392905112836198E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5506956572885379E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7051744542419905E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1490487377492653E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8849422405966323E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5437470250134934E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0361941263810284E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8242565098566019E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7098560185122669E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8907644312909189E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9797577791412026E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.690328645520473E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4574152727181819E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46336881962377835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4905452095874496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.854795933124066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>426.6786304833243</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1997.9700471026051</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5252.2886793634752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7338.959682269443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3665,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,8 +4006,12 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -3723,8 +4023,12 @@
       <c r="B4" s="3">
         <v>8.7701670288333389E-4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>2.372385326430481E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.4191405962443783E-3</v>
+      </c>
       <c r="E4" s="3">
         <v>2.3430891972779219E-3</v>
       </c>
@@ -3736,8 +4040,12 @@
       <c r="B5" s="3">
         <v>7.8816865073057284E-4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3">
+        <v>3.4706031837445465E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.380198560408621E-3</v>
+      </c>
       <c r="E5" s="3">
         <v>3.2559796975205001E-3</v>
       </c>
@@ -3749,8 +4057,12 @@
       <c r="B6" s="3">
         <v>7.2212960121408563E-4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3">
+        <v>3.7357245280324773E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.5544528816110685E-3</v>
+      </c>
       <c r="E6" s="3">
         <v>3.5014449573883273E-3</v>
       </c>
@@ -3762,8 +4074,12 @@
       <c r="B7" s="3">
         <v>7.0589602855079684E-4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3">
+        <v>3.4465191575806004E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.4567921670392355E-3</v>
+      </c>
       <c r="E7" s="3">
         <v>3.4554202875338503E-3</v>
       </c>
@@ -3775,8 +4091,12 @@
       <c r="B8" s="3">
         <v>7.5198781098314215E-4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <v>3.5086962450479021E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.6010608378889311E-3</v>
+      </c>
       <c r="E8" s="3">
         <v>3.4838616150549401E-3</v>
       </c>
@@ -3788,8 +4108,12 @@
       <c r="B9" s="3">
         <v>1.0333903938993581E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3">
+        <v>4.3252946082513863E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.113862137817087E-3</v>
+      </c>
       <c r="E9" s="3">
         <v>4.0099339966338764E-3</v>
       </c>
@@ -3801,8 +4125,12 @@
       <c r="B10" s="3">
         <v>1.5198046931821068E-3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3">
+        <v>5.9726345707429877E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.9399783962686353E-3</v>
+      </c>
       <c r="E10" s="3">
         <v>4.9016767572660101E-3</v>
       </c>
@@ -3814,8 +4142,12 @@
       <c r="B11" s="3">
         <v>2.2396883173586464E-3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <v>8.1706221310319446E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.7951357596455911E-3</v>
+      </c>
       <c r="E11" s="3">
         <v>5.868532599201351E-3</v>
       </c>
@@ -3827,8 +4159,12 @@
       <c r="B12" s="3">
         <v>2.8495287158367094E-3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3">
+        <v>1.078683842021105E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.9512066984927512E-3</v>
+      </c>
       <c r="E12" s="3">
         <v>5.9843681647942766E-3</v>
       </c>
@@ -3840,8 +4176,12 @@
       <c r="B13" s="3">
         <v>3.6049192248806096E-3</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>1.3957536403401647E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.90525967610586E-3</v>
+      </c>
       <c r="E13" s="3">
         <v>5.9630617888778324E-3</v>
       </c>
@@ -3853,8 +4193,12 @@
       <c r="B14" s="3">
         <v>4.6191437425311069E-3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <v>2.0693992287968515E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.1075900147123819E-3</v>
+      </c>
       <c r="E14" s="3">
         <v>6.0338168839604604E-3</v>
       </c>
@@ -3866,8 +4210,12 @@
       <c r="B15" s="3">
         <v>6.3447077704363109E-3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <v>3.4116752095105306E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.6147901646581601E-3</v>
+      </c>
       <c r="E15" s="3">
         <v>6.580268202025388E-3</v>
       </c>
@@ -3879,8 +4227,12 @@
       <c r="B16" s="3">
         <v>8.1663515318707892E-3</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3">
+        <v>5.4066814804792029E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.7905569501123643E-3</v>
+      </c>
       <c r="E16" s="3">
         <v>7.9786139746824136E-3</v>
       </c>
@@ -3892,8 +4244,12 @@
       <c r="B17" s="3">
         <v>1.0871665337080038E-2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3">
+        <v>9.6862091891821572E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.4833331497475859E-3</v>
+      </c>
       <c r="E17" s="3">
         <v>9.79435694016457E-3</v>
       </c>
@@ -3905,8 +4261,12 @@
       <c r="B18" s="3">
         <v>1.386957299893943E-2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>0.15154987807760803</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.2196440184632253E-2</v>
+      </c>
       <c r="E18" s="3">
         <v>1.28798801503391E-2</v>
       </c>
@@ -3918,8 +4278,12 @@
       <c r="B19" s="3">
         <v>1.58559468311802E-2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>0.27883130342181922</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.1244221775677117E-2</v>
+      </c>
       <c r="E19" s="3">
         <v>1.9953094098832842E-2</v>
       </c>
@@ -3931,8 +4295,12 @@
       <c r="B20" s="3">
         <v>1.8677436428960636E-2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>0.64096737705394358</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.0259853659286605E-2</v>
+      </c>
       <c r="E20" s="3">
         <v>5.347391568902507E-2</v>
       </c>
@@ -3944,8 +4312,12 @@
       <c r="B21" s="3">
         <v>1.8919302081746078E-2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3">
+        <v>1.4242259441310841</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.1329923584359991</v>
+      </c>
       <c r="E21" s="3">
         <v>0.15185826764567417</v>
       </c>
@@ -3957,8 +4329,12 @@
       <c r="B22" s="3">
         <v>1.6759355481174021E-2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3">
+        <v>2.8698059755895722</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.41872368728339227</v>
+      </c>
       <c r="E22" s="3">
         <v>0.44258526423537708</v>
       </c>
@@ -3970,8 +4346,12 @@
       <c r="B23" s="3">
         <v>1.6035022972697533E-2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>4.9059064436897888</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0254244364981244</v>
+      </c>
       <c r="E23" s="3">
         <v>1.1006865670907502</v>
       </c>
@@ -3983,8 +4363,12 @@
       <c r="B24" s="3">
         <v>1.5642989290983303E-2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3">
+        <v>8.1534978380836893</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.2499763674126299</v>
+      </c>
       <c r="E24" s="3">
         <v>2.4088001893275734</v>
       </c>
@@ -3996,8 +4380,12 @@
       <c r="B25" s="3">
         <v>1.3819155625264206E-2</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3">
+        <v>10.387898198212728</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.6973888595665314</v>
+      </c>
       <c r="E25" s="3">
         <v>3.7525931635917984</v>
       </c>
@@ -4009,8 +4397,12 @@
       <c r="B26" s="5">
         <v>9.893958968378521E-3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="5">
+        <v>8.9818853212843521</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.8569563951670847</v>
+      </c>
       <c r="E26" s="5">
         <v>3.8395307568580122</v>
       </c>
@@ -4025,11 +4417,11 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>0</v>
+        <v>38.060054785198744</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:E27" si="0">SUM(D3:D26)</f>
-        <v>0</v>
+        <v>11.538275977974111</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
@@ -4061,11 +4453,11 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ref="C28:E28" si="1">C27/24</f>
-        <v>0</v>
+        <v>1.5858356160499476</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48076149908225463</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
@@ -4097,11 +4489,11 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ref="C29:E29" si="2">(C28*24*100)/180000</f>
-        <v>0</v>
+        <v>2.1144474880665971E-2</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4101533210967282E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
@@ -4133,11 +4525,11 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:E30" si="3">1-C29</f>
-        <v>1</v>
+        <v>0.97885552511933405</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99358984667890327</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="3"/>
@@ -4169,11 +4561,11 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" ref="C31:E31" si="4">C29*180000</f>
-        <v>0</v>
+        <v>3806.0054785198745</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1153.827597797411</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="4"/>
@@ -4190,11 +4582,11 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" ref="C32:E32" si="5">C31/24</f>
-        <v>0</v>
+        <v>158.58356160499477</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>48.07614990822546</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="5"/>
@@ -4204,10 +4596,10 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34">
@@ -4216,26 +4608,26 @@
       </c>
       <c r="C34">
         <f>C30*180000</f>
-        <v>180000</v>
+        <v>176193.99452148014</v>
       </c>
       <c r="D34">
         <f>D30*180000</f>
-        <v>180000</v>
+        <v>178846.17240220259</v>
       </c>
       <c r="E34">
         <f>E30*180000</f>
         <v>178814.44844762501</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4246,28 +4638,28 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:E35" si="6">180000-C34</f>
-        <v>0</v>
+        <v>3806.005478519859</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1153.8275977974117</v>
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
         <v>1185.5515523749928</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <f>B28</f>
         <v>7.6902974666983965E-3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <f>B29</f>
         <v>1.0253729955597861E-4</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <f>B32</f>
         <v>0.76902974666983959</v>
       </c>
@@ -4279,62 +4671,62 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:E36" si="7">C35/24</f>
-        <v>0</v>
+        <v>158.58356160499412</v>
       </c>
       <c r="D36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48.076149908225489</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
         <v>49.397981348958034</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
+        <v>1.5858356160499476</v>
+      </c>
+      <c r="I36" s="16">
         <f>C29</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
+        <v>2.1144474880665971E-2</v>
+      </c>
+      <c r="J36" s="17">
         <f>C32</f>
-        <v>0</v>
+        <v>158.58356160499477</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
+        <v>0.48076149908225463</v>
+      </c>
+      <c r="I37" s="16">
         <f>D29</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
+        <v>6.4101533210967282E-3</v>
+      </c>
+      <c r="J37" s="17">
         <f>D32</f>
-        <v>0</v>
+        <v>48.07614990822546</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <f>E28</f>
         <v>0.49397981348957348</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="16">
         <f>E29</f>
         <v>6.5863975131943133E-3</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="17">
         <f>E32</f>
         <v>49.397981348957352</v>
       </c>
@@ -4365,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,8 +4805,12 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -4426,8 +4822,12 @@
       <c r="B4" s="3">
         <v>8.7701670288333389E-4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>2.1781571981165256E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.1581591315422245E-2</v>
+      </c>
       <c r="E4" s="3">
         <v>2.4053744437219273E-2</v>
       </c>
@@ -4439,8 +4839,12 @@
       <c r="B5" s="3">
         <v>7.8816865073057284E-4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3">
+        <v>6.1964573727068713E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.3731837959437108E-2</v>
+      </c>
       <c r="E5" s="3">
         <v>8.1897248778194376E-2</v>
       </c>
@@ -4452,8 +4856,12 @@
       <c r="B6" s="3">
         <v>7.2212960121408563E-4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3">
+        <v>7.5579239276537383E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.0110195412666285E-2</v>
+      </c>
       <c r="E6" s="3">
         <v>9.466002050937769E-2</v>
       </c>
@@ -4465,8 +4873,12 @@
       <c r="B7" s="3">
         <v>7.0589602855079684E-4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3">
+        <v>5.9726993118353784E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.3392905112836198E-2</v>
+      </c>
       <c r="E7" s="3">
         <v>7.1080426866589733E-2</v>
       </c>
@@ -4478,8 +4890,12 @@
       <c r="B8" s="3">
         <v>7.5198781098314215E-4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <v>4.5566066162194011E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.5506956572885379E-2</v>
+      </c>
       <c r="E8" s="3">
         <v>4.9744344513524892E-2</v>
       </c>
@@ -4491,8 +4907,12 @@
       <c r="B9" s="3">
         <v>1.0333903938993581E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3">
+        <v>3.9828317279791643E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.7051744542419905E-2</v>
+      </c>
       <c r="E9" s="3">
         <v>4.0631913703303449E-2</v>
       </c>
@@ -4504,8 +4924,12 @@
       <c r="B10" s="3">
         <v>1.5198046931821068E-3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3">
+        <v>4.4003470404673083E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.1490487377492653E-2</v>
+      </c>
       <c r="E10" s="3">
         <v>3.4378219943275008E-2</v>
       </c>
@@ -4517,8 +4941,12 @@
       <c r="B11" s="3">
         <v>2.2396883173586464E-3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <v>5.3177429365564105E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.8849422405966323E-2</v>
+      </c>
       <c r="E11" s="3">
         <v>3.2211439487779464E-2</v>
       </c>
@@ -4530,8 +4958,12 @@
       <c r="B12" s="3">
         <v>2.8495287158367094E-3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3">
+        <v>6.6802625549243488E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5437470250134934E-2</v>
+      </c>
       <c r="E12" s="3">
         <v>2.6164413920351091E-2</v>
       </c>
@@ -4543,8 +4975,12 @@
       <c r="B13" s="3">
         <v>3.6049192248806096E-3</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>0.10194681547606724</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.0361941263810284E-2</v>
+      </c>
       <c r="E13" s="3">
         <v>2.2054783171756302E-2</v>
       </c>
@@ -4556,8 +4992,12 @@
       <c r="B14" s="3">
         <v>4.6191437425311069E-3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <v>0.1670354004486071</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.8242565098566019E-2</v>
+      </c>
       <c r="E14" s="3">
         <v>1.8875037897191714E-2</v>
       </c>
@@ -4569,8 +5009,12 @@
       <c r="B15" s="3">
         <v>6.3447077704363109E-3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <v>0.28599944037896391</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.7098560185122669E-2</v>
+      </c>
       <c r="E15" s="3">
         <v>1.7152664204281819E-2</v>
       </c>
@@ -4582,8 +5026,12 @@
       <c r="B16" s="3">
         <v>8.1663515318707892E-3</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3">
+        <v>0.67837022810874781</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.8907644312909189E-2</v>
+      </c>
       <c r="E16" s="3">
         <v>1.9951793120542426E-2</v>
       </c>
@@ -4595,8 +5043,12 @@
       <c r="B17" s="3">
         <v>1.0871665337080038E-2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3">
+        <v>1.2769547763193443</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.9797577791412026E-2</v>
+      </c>
       <c r="E17" s="3">
         <v>2.0724479745043184E-2</v>
       </c>
@@ -4608,8 +5060,12 @@
       <c r="B18" s="3">
         <v>1.386957299893943E-2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>3.120346538408997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.690328645520473E-2</v>
+      </c>
       <c r="E18" s="3">
         <v>2.9208472818214766E-2</v>
       </c>
@@ -4621,8 +5077,12 @@
       <c r="B19" s="3">
         <v>1.58559468311802E-2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>10.388542243835147</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.4574152727181819E-2</v>
+      </c>
       <c r="E19" s="3">
         <v>6.8663114247794588E-2</v>
       </c>
@@ -4634,8 +5094,12 @@
       <c r="B20" s="3">
         <v>1.8677436428960636E-2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>49.515536220788917</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.46336881962377835</v>
+      </c>
       <c r="E20" s="3">
         <v>0.44187541063475017</v>
       </c>
@@ -4647,8 +5111,12 @@
       <c r="B21" s="3">
         <v>1.8919302081746078E-2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3">
+        <v>228.21029141506079</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.4905452095874496</v>
+      </c>
       <c r="E21" s="3">
         <v>5.3024314243744621</v>
       </c>
@@ -4660,8 +5128,12 @@
       <c r="B22" s="3">
         <v>1.6759355481174021E-2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3">
+        <v>1067.8229903733625</v>
+      </c>
+      <c r="D22" s="3">
+        <v>57.854795933124066</v>
+      </c>
       <c r="E22" s="3">
         <v>52.979486497164586</v>
       </c>
@@ -4673,8 +5145,12 @@
       <c r="B23" s="3">
         <v>1.6035022972697533E-2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>3753.5281170432322</v>
+      </c>
+      <c r="D23" s="3">
+        <v>426.6786304833243</v>
+      </c>
       <c r="E23" s="3">
         <v>415.20965314034703</v>
       </c>
@@ -4686,8 +5162,12 @@
       <c r="B24" s="3">
         <v>1.5642989290983303E-2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3">
+        <v>10052.835139213752</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1997.9700471026051</v>
+      </c>
       <c r="E24" s="3">
         <v>1956.1458201712137</v>
       </c>
@@ -4699,8 +5179,12 @@
       <c r="B25" s="3">
         <v>1.3819155625264206E-2</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3">
+        <v>18446.60184096139</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5252.2886793634752</v>
+      </c>
       <c r="E25" s="3">
         <v>5172.949503976095</v>
       </c>
@@ -4712,8 +5196,12 @@
       <c r="B26" s="5">
         <v>9.893958968378521E-3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="5">
+        <v>20709.775880768822</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7338.959682269443</v>
+      </c>
       <c r="E26" s="5">
         <v>7265.4574939306003</v>
       </c>
@@ -4728,11 +5216,11 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ref="C27:E27" si="0">SUM(C3:C26)</f>
-        <v>0</v>
+        <v>54324.777421726249</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15080.308787519967</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
@@ -4749,11 +5237,11 @@
       </c>
       <c r="C28" s="3">
         <f>C27/24</f>
-        <v>0</v>
+        <v>2263.5323925719272</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ref="D28:E28" si="1">D27/24</f>
-        <v>0</v>
+        <v>628.34619947999863</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
@@ -4770,11 +5258,11 @@
       </c>
       <c r="C29" s="2">
         <f>(C28*24*100)/180000</f>
-        <v>0</v>
+        <v>30.180431900959029</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ref="D29:E29" si="2">(D28*24*100)/180000</f>
-        <v>0</v>
+        <v>8.3779493263999818</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
@@ -4795,11 +5283,11 @@
       </c>
       <c r="C30" s="2">
         <f>1-C29</f>
-        <v>1</v>
+        <v>-29.180431900959029</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ref="D30:E30" si="3">1-D29</f>
-        <v>1</v>
+        <v>-7.3779493263999818</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="3"/>
@@ -4816,11 +5304,11 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" ref="C31:E31" si="4">C29*180000</f>
-        <v>0</v>
+        <v>5432477.7421726249</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1508030.8787519967</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="4"/>
@@ -4837,11 +5325,11 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" ref="C32:E32" si="5">C31/24</f>
-        <v>0</v>
+        <v>226353.2392571927</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>62834.619947999861</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="5"/>
@@ -4851,22 +5339,22 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4877,28 +5365,28 @@
       </c>
       <c r="C35">
         <f>C30*180000</f>
-        <v>180000</v>
+        <v>-5252477.7421726249</v>
       </c>
       <c r="D35">
         <f>D30*180000</f>
-        <v>180000</v>
+        <v>-1328030.8787519967</v>
       </c>
       <c r="E35">
         <f>E30*180000</f>
         <v>-1306913.7716667792</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="21">
         <f>B28</f>
         <v>7.6902974666983965E-3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="23">
         <f>B29</f>
         <v>1.0253729955597861E-4</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="21">
         <f>B32</f>
         <v>0.76902974666983959</v>
       </c>
@@ -4910,30 +5398,30 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:E36" si="6">180000-C35</f>
-        <v>0</v>
+        <v>5432477.7421726249</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1508030.8787519967</v>
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
         <v>1486913.7716667792</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="G36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="22">
         <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
+        <v>2263.5323925719272</v>
+      </c>
+      <c r="I36" s="24">
         <f>C29</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
+        <v>30.180431900959029</v>
+      </c>
+      <c r="J36" s="22">
         <f>C32</f>
-        <v>0</v>
+        <v>226353.2392571927</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -4943,45 +5431,45 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:E37" si="7">C36/24</f>
-        <v>0</v>
+        <v>226353.2392571927</v>
       </c>
       <c r="D37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62834.619947999861</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
         <v>61954.740486115799</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="22">
         <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
+        <v>628.34619947999863</v>
+      </c>
+      <c r="I37" s="24">
         <f>D29</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
+        <v>8.3779493263999818</v>
+      </c>
+      <c r="J37" s="22">
         <f>D32</f>
-        <v>0</v>
+        <v>62834.619947999861</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="22">
         <f>E28</f>
         <v>619.54740486115804</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="24">
         <f>E29</f>
         <v>8.2606320648154394</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="22">
         <f>E32</f>
         <v>61954.740486115799</v>
       </c>
